--- a/DataMN.xlsx
+++ b/DataMN.xlsx
@@ -27,12 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>URL:</t>
   </si>
   <si>
     <t>http://crc-prod-mn-wf-elb-492694418.us-west-2.elb.amazonaws.com/</t>
+  </si>
+  <si>
+    <t>Adjust Resolution:</t>
   </si>
 </sst>
 </file>
@@ -347,21 +350,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
     </row>

--- a/DataMN.xlsx
+++ b/DataMN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="120" yWindow="7020" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>URL:</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>Adjust Resolution:</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -353,11 +359,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="61.1640625" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -365,6 +372,12 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>

--- a/DataMN.xlsx
+++ b/DataMN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="7020" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="21780" yWindow="11140" windowWidth="16140" windowHeight="11280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
     <t>URL:</t>
   </si>
   <si>
-    <t>http://crc-prod-mn-wf-elb-492694418.us-west-2.elb.amazonaws.com/</t>
-  </si>
-  <si>
     <t>Adjust Resolution:</t>
   </si>
   <si>
@@ -42,6 +39,9 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>https://hb.511mn.org/</t>
   </si>
 </sst>
 </file>
@@ -359,7 +359,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -373,18 +373,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>1</v>

--- a/DataMN.xlsx
+++ b/DataMN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21780" yWindow="11140" windowWidth="16140" windowHeight="11280" tabRatio="500"/>
+    <workbookView xWindow="19720" yWindow="11140" windowWidth="18200" windowHeight="11280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>URL:</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>https://hb.511mn.org/</t>
+  </si>
+  <si>
+    <t>ryan.kavanaugh@crc-corp.com</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -359,7 +365,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -386,6 +392,12 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
       <c r="D2">
         <v>1</v>
       </c>

--- a/DataMN.xlsx
+++ b/DataMN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19720" yWindow="11140" windowWidth="18200" windowHeight="11280" tabRatio="500"/>
+    <workbookView xWindow="19720" yWindow="11120" windowWidth="18200" windowHeight="11280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>URL:</t>
   </si>
@@ -41,23 +41,34 @@
     <t>Password</t>
   </si>
   <si>
-    <t>https://hb.511mn.org/</t>
-  </si>
-  <si>
     <t>ryan.kavanaugh@crc-corp.com</t>
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Jenkins:</t>
+  </si>
+  <si>
+    <t>http://crc-prod-mn-wf-elb-254312128.us-west-2.elb.amazonaws.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,13 +91,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -362,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -374,7 +388,7 @@
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,22 +401,31 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataMN.xlsx
+++ b/DataMN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19720" yWindow="11120" windowWidth="18200" windowHeight="11280" tabRatio="500"/>
+    <workbookView xWindow="-20700" yWindow="8720" windowWidth="18200" windowHeight="11280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>Jenkins:</t>
   </si>
   <si>
-    <t>http://crc-prod-mn-wf-elb-254312128.us-west-2.elb.amazonaws.com/</t>
+    <t>http://crc-prod-mn-wf-elb-927110372.us-west-2.elb.amazonaws.com/</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -424,7 +424,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://crc-prod-mn-wf-elb-254312128.us-west-2.elb.amazonaws.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
